--- a/data/pca/factorExposure/factorExposure_2011-11-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0104204529139495</v>
+        <v>0.01179676392492481</v>
       </c>
       <c r="C2">
-        <v>-0.03094310270960369</v>
+        <v>0.02082077666763079</v>
       </c>
       <c r="D2">
-        <v>-0.01857311076040949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02431220837988514</v>
+      </c>
+      <c r="E2">
+        <v>0.01080153049581373</v>
+      </c>
+      <c r="F2">
+        <v>0.02912641896387223</v>
+      </c>
+      <c r="G2">
+        <v>-0.0002216233156066964</v>
+      </c>
+      <c r="H2">
+        <v>0.02415124961589625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07364258420366053</v>
+        <v>0.08768906366816555</v>
       </c>
       <c r="C4">
-        <v>-0.06061588309742262</v>
+        <v>0.02758585818623161</v>
       </c>
       <c r="D4">
-        <v>-0.07052409516262932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07774291968268644</v>
+      </c>
+      <c r="E4">
+        <v>0.009132191145973632</v>
+      </c>
+      <c r="F4">
+        <v>0.04009752981673841</v>
+      </c>
+      <c r="G4">
+        <v>0.02113435130262454</v>
+      </c>
+      <c r="H4">
+        <v>-0.04222166021347136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1099228951247722</v>
+        <v>0.1228315016019726</v>
       </c>
       <c r="C6">
-        <v>-0.06425150689468113</v>
+        <v>0.04410579703223577</v>
       </c>
       <c r="D6">
-        <v>0.002811697271385985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01772603206910168</v>
+      </c>
+      <c r="E6">
+        <v>-0.02971029717217847</v>
+      </c>
+      <c r="F6">
+        <v>0.04812809835170526</v>
+      </c>
+      <c r="G6">
+        <v>0.03415707629803618</v>
+      </c>
+      <c r="H6">
+        <v>0.1324003978946743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05502295281042604</v>
+        <v>0.06490202665473305</v>
       </c>
       <c r="C7">
-        <v>-0.03740444930553011</v>
+        <v>0.01197184586574121</v>
       </c>
       <c r="D7">
-        <v>-0.03258063252387153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05440103307703228</v>
+      </c>
+      <c r="E7">
+        <v>0.03176493736056792</v>
+      </c>
+      <c r="F7">
+        <v>0.04427419179540362</v>
+      </c>
+      <c r="G7">
+        <v>-0.02379266427952603</v>
+      </c>
+      <c r="H7">
+        <v>-0.01804630485637233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04052351489083952</v>
+        <v>0.04440200609092815</v>
       </c>
       <c r="C8">
-        <v>-0.01775677290620881</v>
+        <v>0.006864451598695597</v>
       </c>
       <c r="D8">
-        <v>-0.06250373137666397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03030654412644566</v>
+      </c>
+      <c r="E8">
+        <v>0.01062823725358356</v>
+      </c>
+      <c r="F8">
+        <v>0.06952784913955756</v>
+      </c>
+      <c r="G8">
+        <v>0.08523999825728483</v>
+      </c>
+      <c r="H8">
+        <v>0.009141984696863285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07068207425360354</v>
+        <v>0.0801181927090799</v>
       </c>
       <c r="C9">
-        <v>-0.04710230909609026</v>
+        <v>0.01614944954276593</v>
       </c>
       <c r="D9">
-        <v>-0.06719740957171899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06922151563039938</v>
+      </c>
+      <c r="E9">
+        <v>0.02332290037779027</v>
+      </c>
+      <c r="F9">
+        <v>0.03298892712653773</v>
+      </c>
+      <c r="G9">
+        <v>0.03146891105426717</v>
+      </c>
+      <c r="H9">
+        <v>-0.04400116859595515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02336585178799784</v>
+        <v>0.04577733101513569</v>
       </c>
       <c r="C10">
-        <v>-0.0170032014324728</v>
+        <v>0.08860453611273053</v>
       </c>
       <c r="D10">
-        <v>0.1682246663360097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1668276855794173</v>
+      </c>
+      <c r="E10">
+        <v>0.03891728504385161</v>
+      </c>
+      <c r="F10">
+        <v>0.05480305538428933</v>
+      </c>
+      <c r="G10">
+        <v>-0.03863837495239808</v>
+      </c>
+      <c r="H10">
+        <v>0.05318261543969519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06681326664074728</v>
+        <v>0.07332004024975834</v>
       </c>
       <c r="C11">
-        <v>-0.04329200246629043</v>
+        <v>0.01000945530304515</v>
       </c>
       <c r="D11">
-        <v>-0.05627076762145163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06408797012009702</v>
+      </c>
+      <c r="E11">
+        <v>-0.0008359432191546864</v>
+      </c>
+      <c r="F11">
+        <v>0.03441687948171646</v>
+      </c>
+      <c r="G11">
+        <v>0.04517459138270364</v>
+      </c>
+      <c r="H11">
+        <v>-0.06557368856946656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05750558121783883</v>
+        <v>0.06782672279414183</v>
       </c>
       <c r="C12">
-        <v>-0.05306442494560904</v>
+        <v>0.02377564542692769</v>
       </c>
       <c r="D12">
-        <v>-0.04614606581599431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05505237660004157</v>
+      </c>
+      <c r="E12">
+        <v>0.01123522818861027</v>
+      </c>
+      <c r="F12">
+        <v>0.02183927475501009</v>
+      </c>
+      <c r="G12">
+        <v>0.02400790124283058</v>
+      </c>
+      <c r="H12">
+        <v>-0.03099465756967225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06927205581496033</v>
+        <v>0.07051924761702565</v>
       </c>
       <c r="C13">
-        <v>-0.05124194456635346</v>
+        <v>0.02219830444321939</v>
       </c>
       <c r="D13">
-        <v>-0.03464362401820643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04384977440143496</v>
+      </c>
+      <c r="E13">
+        <v>0.005718333301348333</v>
+      </c>
+      <c r="F13">
+        <v>0.02310112782354761</v>
+      </c>
+      <c r="G13">
+        <v>0.02499313512063128</v>
+      </c>
+      <c r="H13">
+        <v>-0.05663783506723189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03018597894171511</v>
+        <v>0.03935047117679309</v>
       </c>
       <c r="C14">
-        <v>-0.0309626390984906</v>
+        <v>0.02471604177577003</v>
       </c>
       <c r="D14">
-        <v>0.007979753011981335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01801268311788067</v>
+      </c>
+      <c r="E14">
+        <v>0.02541170453555409</v>
+      </c>
+      <c r="F14">
+        <v>0.01501901718969427</v>
+      </c>
+      <c r="G14">
+        <v>0.01792864952183042</v>
+      </c>
+      <c r="H14">
+        <v>-0.06430274115334363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04148299832160054</v>
+        <v>0.04049887524951731</v>
       </c>
       <c r="C15">
-        <v>-0.01435316603065306</v>
+        <v>0.003225279013466239</v>
       </c>
       <c r="D15">
-        <v>-0.02181121734540515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01098280477463452</v>
+      </c>
+      <c r="E15">
+        <v>0.03472396503947105</v>
+      </c>
+      <c r="F15">
+        <v>0.002714781719391045</v>
+      </c>
+      <c r="G15">
+        <v>0.03078307372387399</v>
+      </c>
+      <c r="H15">
+        <v>-0.02860563731972889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05699740709407446</v>
+        <v>0.06939763406292758</v>
       </c>
       <c r="C16">
-        <v>-0.04152942238375951</v>
+        <v>0.01312760794117511</v>
       </c>
       <c r="D16">
-        <v>-0.0550155930549064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06547372741847357</v>
+      </c>
+      <c r="E16">
+        <v>0.003671254279824933</v>
+      </c>
+      <c r="F16">
+        <v>0.02943231919576956</v>
+      </c>
+      <c r="G16">
+        <v>0.02090269600805619</v>
+      </c>
+      <c r="H16">
+        <v>-0.05042126660981244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06404921341588897</v>
+        <v>0.06307342684248739</v>
       </c>
       <c r="C20">
-        <v>-0.03012690399929079</v>
+        <v>0.0008290357993510795</v>
       </c>
       <c r="D20">
-        <v>-0.04422109686396183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04233860237336511</v>
+      </c>
+      <c r="E20">
+        <v>0.004186304731568719</v>
+      </c>
+      <c r="F20">
+        <v>0.02527571167496043</v>
+      </c>
+      <c r="G20">
+        <v>0.01917674667041407</v>
+      </c>
+      <c r="H20">
+        <v>-0.04623233351845957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03272798195698132</v>
+        <v>0.02928662863267602</v>
       </c>
       <c r="C21">
-        <v>-0.01012053325248371</v>
+        <v>-0.004618721676146814</v>
       </c>
       <c r="D21">
-        <v>-0.0116414422492468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01830684719646694</v>
+      </c>
+      <c r="E21">
+        <v>0.04135595482166892</v>
+      </c>
+      <c r="F21">
+        <v>-0.01337546530271864</v>
+      </c>
+      <c r="G21">
+        <v>0.01017501514998826</v>
+      </c>
+      <c r="H21">
+        <v>0.0457845430490717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07907465830515031</v>
+        <v>0.06906111443585811</v>
       </c>
       <c r="C22">
-        <v>-0.06956646606713249</v>
+        <v>0.01150159911720326</v>
       </c>
       <c r="D22">
-        <v>-0.1528980860727281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1120876722396553</v>
+      </c>
+      <c r="E22">
+        <v>0.6108785662811519</v>
+      </c>
+      <c r="F22">
+        <v>-0.05499633939401878</v>
+      </c>
+      <c r="G22">
+        <v>-0.1689479062133324</v>
+      </c>
+      <c r="H22">
+        <v>0.1412650609960751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08017124011179731</v>
+        <v>0.07001297666872254</v>
       </c>
       <c r="C23">
-        <v>-0.06803713774988418</v>
+        <v>0.009838691016471012</v>
       </c>
       <c r="D23">
-        <v>-0.1541738855431231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.112857369932067</v>
+      </c>
+      <c r="E23">
+        <v>0.6129601637982982</v>
+      </c>
+      <c r="F23">
+        <v>-0.05436164866258192</v>
+      </c>
+      <c r="G23">
+        <v>-0.1634500897224352</v>
+      </c>
+      <c r="H23">
+        <v>0.1367596324134392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07248138222088496</v>
+        <v>0.07857542352111238</v>
       </c>
       <c r="C24">
-        <v>-0.05229840724886797</v>
+        <v>0.01683587495771638</v>
       </c>
       <c r="D24">
-        <v>-0.0597980565246391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06540743110829959</v>
+      </c>
+      <c r="E24">
+        <v>0.01168807587587622</v>
+      </c>
+      <c r="F24">
+        <v>0.03736993450024521</v>
+      </c>
+      <c r="G24">
+        <v>0.03737078469688902</v>
+      </c>
+      <c r="H24">
+        <v>-0.03120180050215115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07186201787822546</v>
+        <v>0.07785887434414103</v>
       </c>
       <c r="C25">
-        <v>-0.05594469555502081</v>
+        <v>0.02305389204014443</v>
       </c>
       <c r="D25">
-        <v>-0.05626835761222996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05842389064746607</v>
+      </c>
+      <c r="E25">
+        <v>0.01363023622807447</v>
+      </c>
+      <c r="F25">
+        <v>0.03218606647675298</v>
+      </c>
+      <c r="G25">
+        <v>0.04440987403179286</v>
+      </c>
+      <c r="H25">
+        <v>-0.04274527435049905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04389273151881537</v>
+        <v>0.04367596429350697</v>
       </c>
       <c r="C26">
-        <v>-0.01452175549092072</v>
+        <v>-0.001663287609075864</v>
       </c>
       <c r="D26">
-        <v>-0.01184674152500615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02112349158701603</v>
+      </c>
+      <c r="E26">
+        <v>0.04295025109989054</v>
+      </c>
+      <c r="F26">
+        <v>0.02743020092566665</v>
+      </c>
+      <c r="G26">
+        <v>0.02796141130271082</v>
+      </c>
+      <c r="H26">
+        <v>-0.04444633935077185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03995932091200449</v>
+        <v>0.06742939318337024</v>
       </c>
       <c r="C28">
-        <v>-0.0556386255926225</v>
+        <v>0.1587221977990754</v>
       </c>
       <c r="D28">
-        <v>0.3100367407854975</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2765479880182444</v>
+      </c>
+      <c r="E28">
+        <v>0.04187036964001523</v>
+      </c>
+      <c r="F28">
+        <v>0.05020960325175012</v>
+      </c>
+      <c r="G28">
+        <v>0.0265068253672938</v>
+      </c>
+      <c r="H28">
+        <v>0.05547520584144048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04427491004523016</v>
+        <v>0.04809978610686763</v>
       </c>
       <c r="C29">
-        <v>-0.04038014600906346</v>
+        <v>0.02755698432946735</v>
       </c>
       <c r="D29">
-        <v>0.0007323375757868838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01871813438994155</v>
+      </c>
+      <c r="E29">
+        <v>0.05466010647680671</v>
+      </c>
+      <c r="F29">
+        <v>0.01418273700091658</v>
+      </c>
+      <c r="G29">
+        <v>0.008783765815318435</v>
+      </c>
+      <c r="H29">
+        <v>-0.07961824844844806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1292295611722882</v>
+        <v>0.1260055211945658</v>
       </c>
       <c r="C30">
-        <v>-0.1011664401225708</v>
+        <v>0.04209438520995681</v>
       </c>
       <c r="D30">
-        <v>-0.111659099994231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09407438766483309</v>
+      </c>
+      <c r="E30">
+        <v>0.05605735401744574</v>
+      </c>
+      <c r="F30">
+        <v>0.01599096812966656</v>
+      </c>
+      <c r="G30">
+        <v>0.0698391583174886</v>
+      </c>
+      <c r="H30">
+        <v>0.03914463706005493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04837843293483867</v>
+        <v>0.04916160946728185</v>
       </c>
       <c r="C31">
-        <v>-0.02662737022246722</v>
+        <v>0.00467687753826575</v>
       </c>
       <c r="D31">
-        <v>-0.01948485541982718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03674163750438324</v>
+      </c>
+      <c r="E31">
+        <v>0.02155133591827317</v>
+      </c>
+      <c r="F31">
+        <v>0.008917938133335482</v>
+      </c>
+      <c r="G31">
+        <v>-0.001615005821439325</v>
+      </c>
+      <c r="H31">
+        <v>-0.06992058169665487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03403625373298273</v>
+        <v>0.0366573592007309</v>
       </c>
       <c r="C32">
-        <v>-0.02457372983877164</v>
+        <v>0.01899072062303276</v>
       </c>
       <c r="D32">
-        <v>-0.03278624310319298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01444508632600572</v>
+      </c>
+      <c r="E32">
+        <v>0.04526638446400378</v>
+      </c>
+      <c r="F32">
+        <v>-0.003080183708899138</v>
+      </c>
+      <c r="G32">
+        <v>0.04643775215209112</v>
+      </c>
+      <c r="H32">
+        <v>-0.006718757815390325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08428681227532199</v>
+        <v>0.09379709953591485</v>
       </c>
       <c r="C33">
-        <v>-0.04734143904449385</v>
+        <v>0.01489474327312332</v>
       </c>
       <c r="D33">
-        <v>-0.04629330304279464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0542712957960959</v>
+      </c>
+      <c r="E33">
+        <v>0.01051564190408693</v>
+      </c>
+      <c r="F33">
+        <v>0.001261800428089211</v>
+      </c>
+      <c r="G33">
+        <v>0.008992214675790769</v>
+      </c>
+      <c r="H33">
+        <v>-0.06510380782230325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05831739665520413</v>
+        <v>0.0658373322253902</v>
       </c>
       <c r="C34">
-        <v>-0.02986669773666856</v>
+        <v>0.003732004844343862</v>
       </c>
       <c r="D34">
-        <v>-0.04959090804476956</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04909511325380434</v>
+      </c>
+      <c r="E34">
+        <v>0.006659096398343891</v>
+      </c>
+      <c r="F34">
+        <v>0.02075951107382113</v>
+      </c>
+      <c r="G34">
+        <v>0.02685088813758026</v>
+      </c>
+      <c r="H34">
+        <v>-0.05285709736341314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03520863325038559</v>
+        <v>0.03721454959329554</v>
       </c>
       <c r="C35">
-        <v>-0.01418034589488554</v>
+        <v>0.003053632704053235</v>
       </c>
       <c r="D35">
-        <v>-0.02039738014407156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01924890662534877</v>
+      </c>
+      <c r="E35">
+        <v>0.02335432691340279</v>
+      </c>
+      <c r="F35">
+        <v>-0.01619394839733495</v>
+      </c>
+      <c r="G35">
+        <v>-0.004364404567378547</v>
+      </c>
+      <c r="H35">
+        <v>-0.03418699207005483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02613754873310746</v>
+        <v>0.02757872551624128</v>
       </c>
       <c r="C36">
-        <v>-0.02072444271127551</v>
+        <v>0.008624236753314122</v>
       </c>
       <c r="D36">
-        <v>-0.02005622947291247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0215333509032138</v>
+      </c>
+      <c r="E36">
+        <v>0.03168441929132387</v>
+      </c>
+      <c r="F36">
+        <v>0.02599664106534952</v>
+      </c>
+      <c r="G36">
+        <v>0.01575009648054103</v>
+      </c>
+      <c r="H36">
+        <v>-0.04458598390212589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05036591201149187</v>
+        <v>0.04799954995921071</v>
       </c>
       <c r="C38">
-        <v>-0.01098435806817088</v>
+        <v>-0.007188062168842073</v>
       </c>
       <c r="D38">
-        <v>-0.008259773899876775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0218246275603956</v>
+      </c>
+      <c r="E38">
+        <v>0.05006659099940207</v>
+      </c>
+      <c r="F38">
+        <v>-0.002086625189141349</v>
+      </c>
+      <c r="G38">
+        <v>0.004649297058502727</v>
+      </c>
+      <c r="H38">
+        <v>-0.0259134448288637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09003545636108931</v>
+        <v>0.1011043679437734</v>
       </c>
       <c r="C39">
-        <v>-0.07527429289777618</v>
+        <v>0.03778343739348582</v>
       </c>
       <c r="D39">
-        <v>-0.04664195703889253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07059259169034546</v>
+      </c>
+      <c r="E39">
+        <v>0.003289178223939484</v>
+      </c>
+      <c r="F39">
+        <v>0.001680989240729796</v>
+      </c>
+      <c r="G39">
+        <v>0.05120146427791576</v>
+      </c>
+      <c r="H39">
+        <v>-0.02101219098584385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0799275583442849</v>
+        <v>0.06150865463878007</v>
       </c>
       <c r="C40">
-        <v>-0.04063978722931218</v>
+        <v>-0.00369559412592551</v>
       </c>
       <c r="D40">
-        <v>-0.0129572537294692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03556874524122022</v>
+      </c>
+      <c r="E40">
+        <v>0.03732832928637296</v>
+      </c>
+      <c r="F40">
+        <v>-0.03639088442989059</v>
+      </c>
+      <c r="G40">
+        <v>0.06198886407361378</v>
+      </c>
+      <c r="H40">
+        <v>0.07123851448307174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04590574482027934</v>
+        <v>0.04719543809770138</v>
       </c>
       <c r="C41">
-        <v>-0.01991586773157374</v>
+        <v>-0.001137241706158878</v>
       </c>
       <c r="D41">
-        <v>-0.033451643083384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03272936293210334</v>
+      </c>
+      <c r="E41">
+        <v>0.001979158440709135</v>
+      </c>
+      <c r="F41">
+        <v>-0.01360075740459265</v>
+      </c>
+      <c r="G41">
+        <v>0.008134448021711569</v>
+      </c>
+      <c r="H41">
+        <v>-0.02986352975645036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05406627099430754</v>
+        <v>0.06037798305764897</v>
       </c>
       <c r="C43">
-        <v>-0.03276161531152256</v>
+        <v>0.01322050933100443</v>
       </c>
       <c r="D43">
-        <v>-0.007200840983958569</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03304480764392062</v>
+      </c>
+      <c r="E43">
+        <v>0.01806207319451241</v>
+      </c>
+      <c r="F43">
+        <v>0.01374530939185667</v>
+      </c>
+      <c r="G43">
+        <v>-0.01396833580642382</v>
+      </c>
+      <c r="H43">
+        <v>-0.06389761383743836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09840869116530861</v>
+        <v>0.09566849746974371</v>
       </c>
       <c r="C44">
-        <v>-0.03638068497954801</v>
+        <v>-0.001917595951810362</v>
       </c>
       <c r="D44">
-        <v>-0.04654522250378412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05369595030122945</v>
+      </c>
+      <c r="E44">
+        <v>0.07312757389076126</v>
+      </c>
+      <c r="F44">
+        <v>0.07667691178636217</v>
+      </c>
+      <c r="G44">
+        <v>0.0770714149070162</v>
+      </c>
+      <c r="H44">
+        <v>-0.05382383260161563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02454263598967091</v>
+        <v>0.03529004984747151</v>
       </c>
       <c r="C46">
-        <v>-0.0234361821804133</v>
+        <v>0.01104098670899296</v>
       </c>
       <c r="D46">
-        <v>-0.03290438622940689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04153779669345908</v>
+      </c>
+      <c r="E46">
+        <v>0.02927109391385659</v>
+      </c>
+      <c r="F46">
+        <v>0.01571545583390287</v>
+      </c>
+      <c r="G46">
+        <v>-0.004567141675224999</v>
+      </c>
+      <c r="H46">
+        <v>-0.03288371288894348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03070413344825423</v>
+        <v>0.04012160895693634</v>
       </c>
       <c r="C47">
-        <v>-0.02354330076040712</v>
+        <v>0.01787126049673227</v>
       </c>
       <c r="D47">
-        <v>0.003084388102566876</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01350076637454633</v>
+      </c>
+      <c r="E47">
+        <v>0.03992469178064011</v>
+      </c>
+      <c r="F47">
+        <v>-0.007626114218725012</v>
+      </c>
+      <c r="G47">
+        <v>-0.02755722013848509</v>
+      </c>
+      <c r="H47">
+        <v>-0.03537296965455561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03638813030516753</v>
+        <v>0.03957213765960605</v>
       </c>
       <c r="C48">
-        <v>-0.02818511528748105</v>
+        <v>0.01203909721533673</v>
       </c>
       <c r="D48">
-        <v>-0.02887918551775881</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02404467857697668</v>
+      </c>
+      <c r="E48">
+        <v>0.03952788052384916</v>
+      </c>
+      <c r="F48">
+        <v>0.007783588899441212</v>
+      </c>
+      <c r="G48">
+        <v>0.0224913132507397</v>
+      </c>
+      <c r="H48">
+        <v>-0.02700925192376161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1621497650820366</v>
+        <v>0.1977685748774795</v>
       </c>
       <c r="C49">
-        <v>-0.05510901634535154</v>
+        <v>0.03487396584111652</v>
       </c>
       <c r="D49">
-        <v>-0.002789750385274785</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02809322610230309</v>
+      </c>
+      <c r="E49">
+        <v>-0.1685113076452339</v>
+      </c>
+      <c r="F49">
+        <v>0.04417224926183552</v>
+      </c>
+      <c r="G49">
+        <v>-0.15344922578745</v>
+      </c>
+      <c r="H49">
+        <v>0.2272857850417365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04362895396550128</v>
+        <v>0.04562828920707505</v>
       </c>
       <c r="C50">
-        <v>-0.0266976824104194</v>
+        <v>0.005682168448746389</v>
       </c>
       <c r="D50">
-        <v>-0.03389183583759323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04055522348892517</v>
+      </c>
+      <c r="E50">
+        <v>0.02981843703545748</v>
+      </c>
+      <c r="F50">
+        <v>0.002978296782739145</v>
+      </c>
+      <c r="G50">
+        <v>-0.00106490882243372</v>
+      </c>
+      <c r="H50">
+        <v>-0.07147594599633844</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02377814454584667</v>
+        <v>0.03507034116578166</v>
       </c>
       <c r="C51">
-        <v>-0.005334733952896397</v>
+        <v>0.005926147273453884</v>
       </c>
       <c r="D51">
-        <v>0.00201811125399902</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.003430052159568385</v>
+      </c>
+      <c r="E51">
+        <v>0.01236788868331009</v>
+      </c>
+      <c r="F51">
+        <v>0.01108280604116137</v>
+      </c>
+      <c r="G51">
+        <v>-0.0178943655487203</v>
+      </c>
+      <c r="H51">
+        <v>0.01750349364070819</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1503225314018318</v>
+        <v>0.1605406904262286</v>
       </c>
       <c r="C53">
-        <v>-0.08474303401346037</v>
+        <v>0.05086497177078628</v>
       </c>
       <c r="D53">
-        <v>0.008739569649883646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02984607657494718</v>
+      </c>
+      <c r="E53">
+        <v>-0.03013904320868191</v>
+      </c>
+      <c r="F53">
+        <v>0.0004578450443022302</v>
+      </c>
+      <c r="G53">
+        <v>-0.00368015505079491</v>
+      </c>
+      <c r="H53">
+        <v>-0.200592669206891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05744588504223683</v>
+        <v>0.05749288933768774</v>
       </c>
       <c r="C54">
-        <v>-0.03342093217511984</v>
+        <v>0.01614502397261757</v>
       </c>
       <c r="D54">
-        <v>-0.01889474829478408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01972273428626162</v>
+      </c>
+      <c r="E54">
+        <v>0.05256382236844939</v>
+      </c>
+      <c r="F54">
+        <v>0.01601258442217462</v>
+      </c>
+      <c r="G54">
+        <v>0.05407481900877797</v>
+      </c>
+      <c r="H54">
+        <v>-0.04253049842283872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09744063887960298</v>
+        <v>0.1009049771808159</v>
       </c>
       <c r="C55">
-        <v>-0.05485884172935008</v>
+        <v>0.02691822185500482</v>
       </c>
       <c r="D55">
-        <v>-0.009570891500562491</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03194005087673592</v>
+      </c>
+      <c r="E55">
+        <v>-0.001410010425338289</v>
+      </c>
+      <c r="F55">
+        <v>0.0152885594882715</v>
+      </c>
+      <c r="G55">
+        <v>0.01762591185635924</v>
+      </c>
+      <c r="H55">
+        <v>-0.1538014543136606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1463175296308869</v>
+        <v>0.1548852263245221</v>
       </c>
       <c r="C56">
-        <v>-0.08812974772354114</v>
+        <v>0.04503324773438785</v>
       </c>
       <c r="D56">
-        <v>0.004852972005545478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04902120309328589</v>
+      </c>
+      <c r="E56">
+        <v>-0.01351801815266803</v>
+      </c>
+      <c r="F56">
+        <v>0.02223227803143274</v>
+      </c>
+      <c r="G56">
+        <v>0.008314002151587955</v>
+      </c>
+      <c r="H56">
+        <v>-0.2058794900703497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1317192190438606</v>
+        <v>0.09895972028463559</v>
       </c>
       <c r="C58">
-        <v>0.01779346386633117</v>
+        <v>-0.07051259931893178</v>
       </c>
       <c r="D58">
-        <v>-0.0518681027837978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01775886203181859</v>
+      </c>
+      <c r="E58">
+        <v>0.1216246059879263</v>
+      </c>
+      <c r="F58">
+        <v>0.02908649721448331</v>
+      </c>
+      <c r="G58">
+        <v>-0.07368821857947444</v>
+      </c>
+      <c r="H58">
+        <v>0.1766765745273394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1156812038121018</v>
+        <v>0.1461944045733171</v>
       </c>
       <c r="C59">
-        <v>-0.06856261138231637</v>
+        <v>0.1756449204778277</v>
       </c>
       <c r="D59">
-        <v>0.4082709705637344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3288563958016029</v>
+      </c>
+      <c r="E59">
+        <v>0.03864586912134792</v>
+      </c>
+      <c r="F59">
+        <v>0.00157660729361901</v>
+      </c>
+      <c r="G59">
+        <v>0.009509426582908665</v>
+      </c>
+      <c r="H59">
+        <v>-0.01569478396071262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2052743842947565</v>
+        <v>0.238283753459335</v>
       </c>
       <c r="C60">
-        <v>-0.1038560542935303</v>
+        <v>0.06269106003358037</v>
       </c>
       <c r="D60">
-        <v>-0.0004596590811500855</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05302866139196753</v>
+      </c>
+      <c r="E60">
+        <v>-0.1123174188196814</v>
+      </c>
+      <c r="F60">
+        <v>0.05124619710070231</v>
+      </c>
+      <c r="G60">
+        <v>-0.03550674068005644</v>
+      </c>
+      <c r="H60">
+        <v>0.1480820100800857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07801668309550702</v>
+        <v>0.08571569951844041</v>
       </c>
       <c r="C61">
-        <v>-0.0498356260826224</v>
+        <v>0.02250501626677059</v>
       </c>
       <c r="D61">
-        <v>-0.02966964599527708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04781182596921469</v>
+      </c>
+      <c r="E61">
+        <v>0.00699090622966148</v>
+      </c>
+      <c r="F61">
+        <v>0.01226447334881365</v>
+      </c>
+      <c r="G61">
+        <v>0.03434060386857333</v>
+      </c>
+      <c r="H61">
+        <v>-0.06473992716317208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.131450406953975</v>
+        <v>0.1364137971059664</v>
       </c>
       <c r="C62">
-        <v>-0.05662605586307555</v>
+        <v>0.01707728441136585</v>
       </c>
       <c r="D62">
-        <v>0.01028285926836177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04315638785266135</v>
+      </c>
+      <c r="E62">
+        <v>-0.04722912941528346</v>
+      </c>
+      <c r="F62">
+        <v>-0.02086953113083343</v>
+      </c>
+      <c r="G62">
+        <v>0.03013063732147006</v>
+      </c>
+      <c r="H62">
+        <v>-0.1950106990795388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0497572094520556</v>
+        <v>0.04767904165755976</v>
       </c>
       <c r="C63">
-        <v>-0.02585217149426761</v>
+        <v>0.007672849210345235</v>
       </c>
       <c r="D63">
-        <v>-0.02771333139016242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02655008832576933</v>
+      </c>
+      <c r="E63">
+        <v>0.04080015248924396</v>
+      </c>
+      <c r="F63">
+        <v>-0.001044859280311074</v>
+      </c>
+      <c r="G63">
+        <v>0.0366265415717075</v>
+      </c>
+      <c r="H63">
+        <v>-0.03488759974528127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1068804288131269</v>
+        <v>0.1109227954357185</v>
       </c>
       <c r="C64">
-        <v>-0.04605403509384204</v>
+        <v>0.0204858597193748</v>
       </c>
       <c r="D64">
-        <v>-0.01623230382117106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02822404928815371</v>
+      </c>
+      <c r="E64">
+        <v>0.04073220681861147</v>
+      </c>
+      <c r="F64">
+        <v>0.04600380491185236</v>
+      </c>
+      <c r="G64">
+        <v>0.06038484272401134</v>
+      </c>
+      <c r="H64">
+        <v>-0.02571658532592906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1256147756817505</v>
+        <v>0.1306115027177505</v>
       </c>
       <c r="C65">
-        <v>-0.06976850306250233</v>
+        <v>0.04672210636391912</v>
       </c>
       <c r="D65">
-        <v>-0.00419460850804486</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02018485799434131</v>
+      </c>
+      <c r="E65">
+        <v>-0.00935633597867306</v>
+      </c>
+      <c r="F65">
+        <v>0.0324182110858939</v>
+      </c>
+      <c r="G65">
+        <v>0.05578629738650079</v>
+      </c>
+      <c r="H65">
+        <v>0.1550938091670604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1483119984422705</v>
+        <v>0.1525447343423184</v>
       </c>
       <c r="C66">
-        <v>-0.08851499606306169</v>
+        <v>0.02598380911290853</v>
       </c>
       <c r="D66">
-        <v>-0.09078035991911985</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1088456225074874</v>
+      </c>
+      <c r="E66">
+        <v>-0.02537746118155672</v>
+      </c>
+      <c r="F66">
+        <v>0.006117096180356016</v>
+      </c>
+      <c r="G66">
+        <v>0.07402230153294742</v>
+      </c>
+      <c r="H66">
+        <v>-0.08628209385034592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07899810151938567</v>
+        <v>0.08710873193563089</v>
       </c>
       <c r="C67">
-        <v>-0.01856485365159485</v>
+        <v>-0.002751803524196606</v>
       </c>
       <c r="D67">
-        <v>-0.01645641700102173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03366752481103053</v>
+      </c>
+      <c r="E67">
+        <v>0.02119436177815085</v>
+      </c>
+      <c r="F67">
+        <v>0.01415344697287893</v>
+      </c>
+      <c r="G67">
+        <v>-0.00999611970404974</v>
+      </c>
+      <c r="H67">
+        <v>-0.02296289450364384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04929848731661754</v>
+        <v>0.06123473472942181</v>
       </c>
       <c r="C68">
-        <v>-0.03861726244675173</v>
+        <v>0.1260597962529297</v>
       </c>
       <c r="D68">
-        <v>0.2607695237775708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2484099785855499</v>
+      </c>
+      <c r="E68">
+        <v>0.04800205768284638</v>
+      </c>
+      <c r="F68">
+        <v>0.01094433059389659</v>
+      </c>
+      <c r="G68">
+        <v>-0.00132712324067864</v>
+      </c>
+      <c r="H68">
+        <v>-0.01834000153178569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05421249490209326</v>
+        <v>0.05285803516939042</v>
       </c>
       <c r="C69">
-        <v>-0.02346829439004602</v>
+        <v>0.002961994021951139</v>
       </c>
       <c r="D69">
-        <v>-0.02030200538129411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02161144284113238</v>
+      </c>
+      <c r="E69">
+        <v>0.02305555675631677</v>
+      </c>
+      <c r="F69">
+        <v>-0.01143798627987936</v>
+      </c>
+      <c r="G69">
+        <v>0.001708492259943922</v>
+      </c>
+      <c r="H69">
+        <v>-0.04605076510237323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006717006150306707</v>
+        <v>0.03109480303536284</v>
       </c>
       <c r="C70">
-        <v>0.001367775656944417</v>
+        <v>0.005233704061698455</v>
       </c>
       <c r="D70">
-        <v>0.0112422480595018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005842997567231066</v>
+      </c>
+      <c r="E70">
+        <v>-0.02426865054455511</v>
+      </c>
+      <c r="F70">
+        <v>-0.007692709976867682</v>
+      </c>
+      <c r="G70">
+        <v>-0.0254571256851704</v>
+      </c>
+      <c r="H70">
+        <v>0.03429218958978819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04584716865618042</v>
+        <v>0.066405510329305</v>
       </c>
       <c r="C71">
-        <v>-0.03601009315824848</v>
+        <v>0.139726372454477</v>
       </c>
       <c r="D71">
-        <v>0.2907016399508931</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.271644824391323</v>
+      </c>
+      <c r="E71">
+        <v>0.04869352945278345</v>
+      </c>
+      <c r="F71">
+        <v>0.03737891522637397</v>
+      </c>
+      <c r="G71">
+        <v>-0.00215285327715263</v>
+      </c>
+      <c r="H71">
+        <v>-0.01332021953670839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1368840027638356</v>
+        <v>0.1420947583068091</v>
       </c>
       <c r="C72">
-        <v>-0.0645190361820793</v>
+        <v>0.0331508987523313</v>
       </c>
       <c r="D72">
-        <v>0.01687589002867773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008630628761141686</v>
+      </c>
+      <c r="E72">
+        <v>-0.04623108268647403</v>
+      </c>
+      <c r="F72">
+        <v>-0.1608921279515194</v>
+      </c>
+      <c r="G72">
+        <v>0.1059181898437257</v>
+      </c>
+      <c r="H72">
+        <v>0.003157379000027457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2809367097924352</v>
+        <v>0.2853125929417654</v>
       </c>
       <c r="C73">
-        <v>-0.1001509773051042</v>
+        <v>0.006379442043281066</v>
       </c>
       <c r="D73">
-        <v>-0.04242674470636857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09557843722276556</v>
+      </c>
+      <c r="E73">
+        <v>-0.2575643738809902</v>
+      </c>
+      <c r="F73">
+        <v>0.07003839943390296</v>
+      </c>
+      <c r="G73">
+        <v>-0.2660876122136683</v>
+      </c>
+      <c r="H73">
+        <v>0.4001630083610183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07637435903816243</v>
+        <v>0.0888824095137936</v>
       </c>
       <c r="C74">
-        <v>-0.07391460171648966</v>
+        <v>0.04489703354688158</v>
       </c>
       <c r="D74">
-        <v>-0.006295735585120988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05049821267667545</v>
+      </c>
+      <c r="E74">
+        <v>-0.00722843006500743</v>
+      </c>
+      <c r="F74">
+        <v>-0.0001057825627172303</v>
+      </c>
+      <c r="G74">
+        <v>-0.03120658665375266</v>
+      </c>
+      <c r="H74">
+        <v>-0.1352702891261738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1002640374678722</v>
+        <v>0.1024817093466325</v>
       </c>
       <c r="C75">
-        <v>-0.053596561586406</v>
+        <v>0.01817813128637487</v>
       </c>
       <c r="D75">
-        <v>-0.00246171816699865</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02868965773435452</v>
+      </c>
+      <c r="E75">
+        <v>0.001397443659953677</v>
+      </c>
+      <c r="F75">
+        <v>-0.001018548759325563</v>
+      </c>
+      <c r="G75">
+        <v>-0.007224332666906513</v>
+      </c>
+      <c r="H75">
+        <v>-0.09876398963306375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.125970953945154</v>
+        <v>0.137880070742938</v>
       </c>
       <c r="C76">
-        <v>-0.07528559243622993</v>
+        <v>0.03675068849814218</v>
       </c>
       <c r="D76">
-        <v>-0.02042328877839759</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0604078209413243</v>
+      </c>
+      <c r="E76">
+        <v>0.01073371621909329</v>
+      </c>
+      <c r="F76">
+        <v>0.03031462797455252</v>
+      </c>
+      <c r="G76">
+        <v>0.009898853279817264</v>
+      </c>
+      <c r="H76">
+        <v>-0.2279741337543355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1173945383570471</v>
+        <v>0.09958314785378547</v>
       </c>
       <c r="C77">
-        <v>-0.04221341279929872</v>
+        <v>-0.009653647321816363</v>
       </c>
       <c r="D77">
-        <v>-0.07201677127489695</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04467733460350899</v>
+      </c>
+      <c r="E77">
+        <v>0.03980768179000487</v>
+      </c>
+      <c r="F77">
+        <v>0.06873253257309814</v>
+      </c>
+      <c r="G77">
+        <v>0.7988015986747555</v>
+      </c>
+      <c r="H77">
+        <v>0.3337195088414295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1057861715899494</v>
+        <v>0.1517767706188536</v>
       </c>
       <c r="C78">
-        <v>-0.04757258724534189</v>
+        <v>0.03015887568693589</v>
       </c>
       <c r="D78">
-        <v>-0.08367159633462666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08441020540692178</v>
+      </c>
+      <c r="E78">
+        <v>0.05871481337275419</v>
+      </c>
+      <c r="F78">
+        <v>0.05583829129266911</v>
+      </c>
+      <c r="G78">
+        <v>0.03101673340381353</v>
+      </c>
+      <c r="H78">
+        <v>0.08083692752548095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1391509512236606</v>
+        <v>0.1440835040241231</v>
       </c>
       <c r="C79">
-        <v>-0.07349244147386633</v>
+        <v>0.02730657741911365</v>
       </c>
       <c r="D79">
-        <v>-0.02267715245221123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05242238981403979</v>
+      </c>
+      <c r="E79">
+        <v>-0.01846753374463605</v>
+      </c>
+      <c r="F79">
+        <v>0.0164183420379723</v>
+      </c>
+      <c r="G79">
+        <v>0.02263587019368839</v>
+      </c>
+      <c r="H79">
+        <v>-0.1711049375602095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04139227916222901</v>
+        <v>0.04207723454386619</v>
       </c>
       <c r="C80">
-        <v>-0.02397481298261319</v>
+        <v>0.0103823849706285</v>
       </c>
       <c r="D80">
-        <v>-0.02750174676355012</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01895924227179187</v>
+      </c>
+      <c r="E80">
+        <v>-0.04192823366253815</v>
+      </c>
+      <c r="F80">
+        <v>0.007604970432161536</v>
+      </c>
+      <c r="G80">
+        <v>-0.01352113519195359</v>
+      </c>
+      <c r="H80">
+        <v>-0.03747055597075526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1216234984619442</v>
+        <v>0.1253764917591576</v>
       </c>
       <c r="C81">
-        <v>-0.07445112940035715</v>
+        <v>0.03546528150805739</v>
       </c>
       <c r="D81">
-        <v>-0.0188158922153544</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0383118391240114</v>
+      </c>
+      <c r="E81">
+        <v>0.00550249748854685</v>
+      </c>
+      <c r="F81">
+        <v>0.01707093703541265</v>
+      </c>
+      <c r="G81">
+        <v>-0.002573061564726679</v>
+      </c>
+      <c r="H81">
+        <v>-0.1510137394499589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1287188251645329</v>
+        <v>0.1309275748073549</v>
       </c>
       <c r="C82">
-        <v>-0.07354640568754321</v>
+        <v>0.03534877981099352</v>
       </c>
       <c r="D82">
-        <v>-0.008437313219625474</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04052679762017165</v>
+      </c>
+      <c r="E82">
+        <v>-0.02350288518589314</v>
+      </c>
+      <c r="F82">
+        <v>0.03731479889325073</v>
+      </c>
+      <c r="G82">
+        <v>-0.000138248133237853</v>
+      </c>
+      <c r="H82">
+        <v>-0.2245616249934927</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0646489453308717</v>
+        <v>0.08157046145105921</v>
       </c>
       <c r="C83">
-        <v>0.01395056789980698</v>
+        <v>-0.0267739912019428</v>
       </c>
       <c r="D83">
-        <v>-0.02261378953013306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01689364044333454</v>
+      </c>
+      <c r="E83">
+        <v>0.01349534162385518</v>
+      </c>
+      <c r="F83">
+        <v>0.03457831726000767</v>
+      </c>
+      <c r="G83">
+        <v>-0.04292158092121683</v>
+      </c>
+      <c r="H83">
+        <v>0.03120059423474856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03062228427876455</v>
+        <v>0.03436759746897404</v>
       </c>
       <c r="C84">
-        <v>-0.04026407933883575</v>
+        <v>0.01597726080904026</v>
       </c>
       <c r="D84">
-        <v>-0.03427950411021435</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0466420496063891</v>
+      </c>
+      <c r="E84">
+        <v>0.02130408245307159</v>
+      </c>
+      <c r="F84">
+        <v>-0.03643477117644132</v>
+      </c>
+      <c r="G84">
+        <v>-0.02868006699749112</v>
+      </c>
+      <c r="H84">
+        <v>-0.02553799357808756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1149992103466355</v>
+        <v>0.1210962124803635</v>
       </c>
       <c r="C85">
-        <v>-0.04326360429665455</v>
+        <v>0.008374137445394716</v>
       </c>
       <c r="D85">
-        <v>-0.04728474003852414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04429536878687355</v>
+      </c>
+      <c r="E85">
+        <v>0.01530951389338845</v>
+      </c>
+      <c r="F85">
+        <v>0.03505256560799408</v>
+      </c>
+      <c r="G85">
+        <v>-0.007394807239494624</v>
+      </c>
+      <c r="H85">
+        <v>-0.1414953519920606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05016068409516239</v>
+        <v>0.05430273831389708</v>
       </c>
       <c r="C86">
-        <v>-0.02656979423718219</v>
+        <v>0.003161616372591023</v>
       </c>
       <c r="D86">
-        <v>-0.06595538431984399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03825061494669812</v>
+      </c>
+      <c r="E86">
+        <v>0.03974273778561967</v>
+      </c>
+      <c r="F86">
+        <v>0.02668060161198537</v>
+      </c>
+      <c r="G86">
+        <v>-0.02507142719189089</v>
+      </c>
+      <c r="H86">
+        <v>0.05756996931512144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1212623889750748</v>
+        <v>0.1247619105427555</v>
       </c>
       <c r="C87">
-        <v>-0.08340677740582662</v>
+        <v>0.0263728145667826</v>
       </c>
       <c r="D87">
-        <v>-0.06340281638712929</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07765774777998291</v>
+      </c>
+      <c r="E87">
+        <v>0.02222002137678642</v>
+      </c>
+      <c r="F87">
+        <v>0.02453832002908719</v>
+      </c>
+      <c r="G87">
+        <v>0.1523401390898623</v>
+      </c>
+      <c r="H87">
+        <v>0.06766444841606084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05429571765535438</v>
+        <v>0.06424816092716806</v>
       </c>
       <c r="C88">
-        <v>-0.03682288661623655</v>
+        <v>0.01613194577009731</v>
       </c>
       <c r="D88">
-        <v>-0.02624344618850905</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04509518890648648</v>
+      </c>
+      <c r="E88">
+        <v>0.002629873695610448</v>
+      </c>
+      <c r="F88">
+        <v>0.02189968319793308</v>
+      </c>
+      <c r="G88">
+        <v>0.01339946184931818</v>
+      </c>
+      <c r="H88">
+        <v>-0.05033508210301051</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07637177755038468</v>
+        <v>0.1060306180408374</v>
       </c>
       <c r="C89">
-        <v>-0.05987983756478547</v>
+        <v>0.1794909045604794</v>
       </c>
       <c r="D89">
-        <v>0.3206531726134643</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3173011023922671</v>
+      </c>
+      <c r="E89">
+        <v>0.06290142512108293</v>
+      </c>
+      <c r="F89">
+        <v>0.06846222858252538</v>
+      </c>
+      <c r="G89">
+        <v>-0.02603166936465598</v>
+      </c>
+      <c r="H89">
+        <v>-0.020327275807656</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05995504652372809</v>
+        <v>0.08097942461313465</v>
       </c>
       <c r="C90">
-        <v>-0.04379840864283082</v>
+        <v>0.1383382214228347</v>
       </c>
       <c r="D90">
-        <v>0.2790163625450812</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2608768518498389</v>
+      </c>
+      <c r="E90">
+        <v>0.0567730905371875</v>
+      </c>
+      <c r="F90">
+        <v>0.02772817741349998</v>
+      </c>
+      <c r="G90">
+        <v>0.03706401405257315</v>
+      </c>
+      <c r="H90">
+        <v>0.01393641226124478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08906343788092522</v>
+        <v>0.08997288758729816</v>
       </c>
       <c r="C91">
-        <v>-0.05650700918438626</v>
+        <v>0.02175589254701548</v>
       </c>
       <c r="D91">
-        <v>-0.01138401091285967</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03762210721384728</v>
+      </c>
+      <c r="E91">
+        <v>0.006380561631624801</v>
+      </c>
+      <c r="F91">
+        <v>0.003932106797635201</v>
+      </c>
+      <c r="G91">
+        <v>-0.01944171834299823</v>
+      </c>
+      <c r="H91">
+        <v>-0.09035182827761955</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06195438832801772</v>
+        <v>0.08190175788912275</v>
       </c>
       <c r="C92">
-        <v>-0.05433390124171236</v>
+        <v>0.1631515724398533</v>
       </c>
       <c r="D92">
-        <v>0.3332764924791644</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3025722505052046</v>
+      </c>
+      <c r="E92">
+        <v>0.0517532443139789</v>
+      </c>
+      <c r="F92">
+        <v>0.03611627879428567</v>
+      </c>
+      <c r="G92">
+        <v>0.00948207727832791</v>
+      </c>
+      <c r="H92">
+        <v>-0.02447725295762555</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05260139024697037</v>
+        <v>0.07773748763869216</v>
       </c>
       <c r="C93">
-        <v>-0.04895802855059585</v>
+        <v>0.1555191408270911</v>
       </c>
       <c r="D93">
-        <v>0.3023361844031381</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2755690576899208</v>
+      </c>
+      <c r="E93">
+        <v>0.0303951430321503</v>
+      </c>
+      <c r="F93">
+        <v>0.02724886302222037</v>
+      </c>
+      <c r="G93">
+        <v>0.0163690145670266</v>
+      </c>
+      <c r="H93">
+        <v>-0.003648175941126485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1270551639803778</v>
+        <v>0.1256551736165033</v>
       </c>
       <c r="C94">
-        <v>-0.04142847287923563</v>
+        <v>-0.001949133304096446</v>
       </c>
       <c r="D94">
-        <v>-0.04405341023674463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04674439237133853</v>
+      </c>
+      <c r="E94">
+        <v>-0.01995797731012454</v>
+      </c>
+      <c r="F94">
+        <v>0.01909145930293118</v>
+      </c>
+      <c r="G94">
+        <v>-0.038104378486275</v>
+      </c>
+      <c r="H94">
+        <v>-0.1074790746638737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1184715557500086</v>
+        <v>0.1292326893709883</v>
       </c>
       <c r="C95">
-        <v>-0.03555180450692828</v>
+        <v>-0.005224518551327518</v>
       </c>
       <c r="D95">
-        <v>-0.05719583527998758</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06316964088427747</v>
+      </c>
+      <c r="E95">
+        <v>0.004121268849575547</v>
+      </c>
+      <c r="F95">
+        <v>0.05407042848908227</v>
+      </c>
+      <c r="G95">
+        <v>0.04913201386030228</v>
+      </c>
+      <c r="H95">
+        <v>0.08821905557935882</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2244419981044664</v>
+        <v>0.1942378928285197</v>
       </c>
       <c r="C97">
-        <v>-0.05908728419587806</v>
+        <v>-0.001670929744767673</v>
       </c>
       <c r="D97">
-        <v>0.119312299772335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05755311572320651</v>
+      </c>
+      <c r="E97">
+        <v>-0.05696387702685701</v>
+      </c>
+      <c r="F97">
+        <v>-0.9384953591610448</v>
+      </c>
+      <c r="G97">
+        <v>0.05132187616637491</v>
+      </c>
+      <c r="H97">
+        <v>0.03000244151196561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2409934874881709</v>
+        <v>0.2742701725166204</v>
       </c>
       <c r="C98">
-        <v>-0.06875350131137047</v>
+        <v>0.02037502522562782</v>
       </c>
       <c r="D98">
-        <v>-0.0113627270168374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04384636527904599</v>
+      </c>
+      <c r="E98">
+        <v>-0.1991476356313636</v>
+      </c>
+      <c r="F98">
+        <v>0.04491991945163666</v>
+      </c>
+      <c r="G98">
+        <v>-0.3012632580921444</v>
+      </c>
+      <c r="H98">
+        <v>0.1873439679839377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4422656009512682</v>
+        <v>0.2834703719086982</v>
       </c>
       <c r="C99">
-        <v>0.8807907460766434</v>
+        <v>-0.8680789081468399</v>
       </c>
       <c r="D99">
-        <v>0.0249008748278223</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.362089606759931</v>
+      </c>
+      <c r="E99">
+        <v>0.06349474445697909</v>
+      </c>
+      <c r="F99">
+        <v>0.07432114144797863</v>
+      </c>
+      <c r="G99">
+        <v>0.01613865150740671</v>
+      </c>
+      <c r="H99">
+        <v>-0.06865333158405293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04432772730033218</v>
+        <v>0.04817185341821483</v>
       </c>
       <c r="C101">
-        <v>-0.0406709354052925</v>
+        <v>0.02777912574572991</v>
       </c>
       <c r="D101">
-        <v>0.000552002256412801</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01910593384691551</v>
+      </c>
+      <c r="E101">
+        <v>0.05441967009400452</v>
+      </c>
+      <c r="F101">
+        <v>0.0142785687811802</v>
+      </c>
+      <c r="G101">
+        <v>0.007635407285949544</v>
+      </c>
+      <c r="H101">
+        <v>-0.07831853678610427</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
